--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829476.1133688907</v>
+        <v>-832369.0620618964</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13602789.33223622</v>
+        <v>13602789.33223623</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.32367389561017</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="G2" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="I2" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>12.32367389561017</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.32367389561017</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.32367389561016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,61 +829,61 @@
         <v>13.99145537648747</v>
       </c>
       <c r="G4" t="n">
-        <v>12.32367389561016</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.32367389561017</v>
+      </c>
+      <c r="W4" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>57.450087144881</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>54.08594089934285</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="G5" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.96618300274933</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>50.60203675720987</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.161682993537793</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>57.450087144881</v>
+        <v>1.161682993536217</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.44035376367337</v>
+        <v>49.44035376367365</v>
       </c>
       <c r="S6" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="T6" t="n">
-        <v>57.450087144881</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>57.450087144881</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.60203675720989</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.81646603314044</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="S7" t="n">
-        <v>21.78557072407073</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.450087144881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>142.9257124785033</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>117.2670251968445</v>
       </c>
       <c r="F8" t="n">
-        <v>157.1187419577135</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="G8" t="n">
-        <v>157.1187419577135</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760547</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.1187419577135</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2469034849667</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.86649038879168</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.64041629783931</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.071591919214</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>54.67817969930066</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
     </row>
     <row r="10">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361791</v>
+        <v>4.825729881435631</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>9.177839155320669</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8522084074155</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1373,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>252.6816724429443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1158122680986</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>49.45875012883137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>132.3569894857579</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>161.9824080670578</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>192.4298766288003</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512083</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853829</v>
+        <v>12.76005920853821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762149</v>
+        <v>124.8757279762148</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>59.85879563640236</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>117.1706926137963</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295226</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452981</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295142</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510269</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706660005</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453004</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943588</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453004</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659973</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,7 +3560,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179188</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="C2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="D2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="E2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="F2" t="n">
         <v>29.38488284726541</v>
@@ -4322,7 +4322,7 @@
         <v>15.2520996386922</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I2" t="n">
         <v>1.119316430118998</v>
@@ -4331,19 +4331,19 @@
         <v>1.119316430118998</v>
       </c>
       <c r="K2" t="n">
-        <v>1.119316430118998</v>
+        <v>14.9708572528416</v>
       </c>
       <c r="L2" t="n">
-        <v>14.9708572528416</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="M2" t="n">
-        <v>23.74607611893826</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="N2" t="n">
-        <v>28.2627398605047</v>
+        <v>33.33906181713064</v>
       </c>
       <c r="O2" t="n">
-        <v>28.2627398605047</v>
+        <v>33.33906181713064</v>
       </c>
       <c r="P2" t="n">
         <v>42.1142806832273</v>
@@ -4352,28 +4352,28 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R2" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="S2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="T2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="U2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="V2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="W2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="X2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.83303829737669</v>
+        <v>43.51766605583862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.2520996386922</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="C3" t="n">
-        <v>15.2520996386922</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2520996386922</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="E3" t="n">
-        <v>15.2520996386922</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="F3" t="n">
         <v>15.2520996386922</v>
       </c>
       <c r="G3" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="H3" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I3" t="n">
         <v>1.119316430118998</v>
@@ -4431,28 +4431,28 @@
         <v>55.9658215059499</v>
       </c>
       <c r="R3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="S3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U3" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="X3" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.2520996386922</v>
+        <v>55.9658215059499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="C4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="D4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="E4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="F4" t="n">
-        <v>27.70025508880348</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="G4" t="n">
         <v>15.2520996386922</v>
@@ -4483,7 +4483,7 @@
         <v>15.2520996386922</v>
       </c>
       <c r="I4" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="J4" t="n">
         <v>1.119316430118998</v>
@@ -4492,16 +4492,16 @@
         <v>1.119316430118998</v>
       </c>
       <c r="L4" t="n">
+        <v>1.119316430118998</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.9708572528416</v>
       </c>
-      <c r="M4" t="n">
-        <v>28.2627398605047</v>
-      </c>
       <c r="N4" t="n">
-        <v>42.1142806832273</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="O4" t="n">
-        <v>55.9658215059499</v>
+        <v>42.67393889828679</v>
       </c>
       <c r="P4" t="n">
         <v>55.9658215059499</v>
@@ -4522,16 +4522,16 @@
         <v>55.9658215059499</v>
       </c>
       <c r="V4" t="n">
-        <v>55.9658215059499</v>
+        <v>43.51766605583862</v>
       </c>
       <c r="W4" t="n">
-        <v>55.9658215059499</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="X4" t="n">
-        <v>55.9658215059499</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.83303829737669</v>
+        <v>29.38488284726541</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.289052617151</v>
+        <v>178.687180137892</v>
       </c>
       <c r="C5" t="n">
-        <v>117.2586615617156</v>
+        <v>178.687180137892</v>
       </c>
       <c r="D5" t="n">
-        <v>117.2586615617156</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="E5" t="n">
-        <v>117.2586615617156</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="F5" t="n">
-        <v>62.62639802702584</v>
+        <v>62.62639802702423</v>
       </c>
       <c r="G5" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="H5" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="I5" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="J5" t="n">
-        <v>61.47159324502267</v>
+        <v>61.47159324502109</v>
       </c>
       <c r="K5" t="n">
-        <v>61.47159324502267</v>
+        <v>61.47159324502109</v>
       </c>
       <c r="L5" t="n">
-        <v>66.58170308959028</v>
+        <v>66.58170308958738</v>
       </c>
       <c r="M5" t="n">
-        <v>123.4572893630225</v>
+        <v>116.0491760326566</v>
       </c>
       <c r="N5" t="n">
-        <v>172.9247623060918</v>
+        <v>172.9247623060874</v>
       </c>
       <c r="O5" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="P5" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="Q5" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="R5" t="n">
-        <v>175.289052617151</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="S5" t="n">
-        <v>175.289052617151</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="T5" t="n">
-        <v>175.289052617151</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="U5" t="n">
-        <v>175.289052617151</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="V5" t="n">
-        <v>175.289052617151</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="W5" t="n">
-        <v>175.289052617151</v>
+        <v>178.687180137892</v>
       </c>
       <c r="X5" t="n">
-        <v>175.289052617151</v>
+        <v>178.687180137892</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.289052617151</v>
+        <v>178.687180137892</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.62639802702584</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="C6" t="n">
-        <v>4.59600697159048</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="D6" t="n">
-        <v>4.59600697159048</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="E6" t="n">
-        <v>4.59600697159048</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="F6" t="n">
-        <v>4.59600697159048</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="G6" t="n">
-        <v>4.59600697159048</v>
+        <v>120.6567890824581</v>
       </c>
       <c r="H6" t="n">
-        <v>4.59600697159048</v>
+        <v>62.62639802702423</v>
       </c>
       <c r="I6" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="J6" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="K6" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="L6" t="n">
-        <v>43.01781651009911</v>
+        <v>43.01781651009804</v>
       </c>
       <c r="M6" t="n">
-        <v>99.8934027835313</v>
+        <v>99.89340278352877</v>
       </c>
       <c r="N6" t="n">
-        <v>156.7689890569634</v>
+        <v>156.7689890569595</v>
       </c>
       <c r="O6" t="n">
-        <v>208.0088827474013</v>
+        <v>208.0088827473963</v>
       </c>
       <c r="P6" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="R6" t="n">
-        <v>179.8605973030863</v>
+        <v>179.8605973030801</v>
       </c>
       <c r="S6" t="n">
-        <v>121.8302062476509</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="T6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="U6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="V6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="W6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="X6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
       <c r="Y6" t="n">
-        <v>63.79981519221553</v>
+        <v>121.8302062476462</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.6567890824612</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="C7" t="n">
-        <v>120.6567890824612</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="D7" t="n">
-        <v>120.6567890824612</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="E7" t="n">
-        <v>62.62639802702584</v>
+        <v>113.7395664686504</v>
       </c>
       <c r="F7" t="n">
-        <v>62.62639802702584</v>
+        <v>55.70917541321651</v>
       </c>
       <c r="G7" t="n">
-        <v>62.62639802702584</v>
+        <v>55.70917541321651</v>
       </c>
       <c r="H7" t="n">
-        <v>4.59600697159048</v>
+        <v>55.70917541321651</v>
       </c>
       <c r="I7" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="J7" t="n">
-        <v>4.59600697159048</v>
+        <v>4.596006971590362</v>
       </c>
       <c r="K7" t="n">
-        <v>4.59600697159048</v>
+        <v>61.31891064854825</v>
       </c>
       <c r="L7" t="n">
-        <v>4.59600697159048</v>
+        <v>118.194496921979</v>
       </c>
       <c r="M7" t="n">
-        <v>61.47159324502267</v>
+        <v>172.9247623060874</v>
       </c>
       <c r="N7" t="n">
-        <v>116.0491760326596</v>
+        <v>172.9247623060874</v>
       </c>
       <c r="O7" t="n">
-        <v>172.9247623060918</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="P7" t="n">
-        <v>229.800348579524</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="Q7" t="n">
-        <v>200.6928071319074</v>
+        <v>229.8003485795181</v>
       </c>
       <c r="R7" t="n">
-        <v>200.6928071319074</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="S7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="T7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="U7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="V7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="W7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="X7" t="n">
-        <v>178.6871801378966</v>
+        <v>171.7699575240842</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.6567890824612</v>
+        <v>171.7699575240842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="C8" t="n">
-        <v>462.7690332874066</v>
+        <v>607.138439831349</v>
       </c>
       <c r="D8" t="n">
-        <v>462.7690332874066</v>
+        <v>607.138439831349</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7690332874066</v>
+        <v>488.6868992284758</v>
       </c>
       <c r="F8" t="n">
-        <v>304.0632333301203</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="G8" t="n">
-        <v>145.357433372834</v>
+        <v>171.2752993139033</v>
       </c>
       <c r="H8" t="n">
-        <v>145.357433372834</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I8" t="n">
-        <v>12.56949935661708</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J8" t="n">
-        <v>61.34835368036751</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K8" t="n">
-        <v>101.5645669032559</v>
+        <v>52.78571257950543</v>
       </c>
       <c r="L8" t="n">
-        <v>188.3580974250195</v>
+        <v>139.579243101269</v>
       </c>
       <c r="M8" t="n">
-        <v>316.6020608975394</v>
+        <v>267.8232065737889</v>
       </c>
       <c r="N8" t="n">
-        <v>451.5349541528136</v>
+        <v>402.756099829063</v>
       </c>
       <c r="O8" t="n">
-        <v>565.6129977599421</v>
+        <v>516.8341434361915</v>
       </c>
       <c r="P8" t="n">
-        <v>628.4749678308539</v>
+        <v>579.6961135071033</v>
       </c>
       <c r="Q8" t="n">
-        <v>628.4749678308539</v>
+        <v>628.4749678308535</v>
       </c>
       <c r="R8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="S8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="T8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="U8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="V8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="W8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="X8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
       <c r="Y8" t="n">
-        <v>607.1384398313494</v>
+        <v>607.138439831349</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>628.4749678308539</v>
+        <v>223.4373359783875</v>
       </c>
       <c r="C9" t="n">
-        <v>628.4749678308539</v>
+        <v>223.4373359783875</v>
       </c>
       <c r="D9" t="n">
-        <v>479.5405581696026</v>
+        <v>223.4373359783875</v>
       </c>
       <c r="E9" t="n">
-        <v>320.8347582123163</v>
+        <v>64.73153602110122</v>
       </c>
       <c r="F9" t="n">
-        <v>174.3002002392012</v>
+        <v>64.73153602110122</v>
       </c>
       <c r="G9" t="n">
-        <v>36.6770654059016</v>
+        <v>64.73153602110122</v>
       </c>
       <c r="H9" t="n">
-        <v>12.56949935661708</v>
+        <v>64.73153602110122</v>
       </c>
       <c r="I9" t="n">
-        <v>12.56949935661708</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J9" t="n">
-        <v>12.56949935661708</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K9" t="n">
-        <v>51.41474465792123</v>
+        <v>51.41474465792126</v>
       </c>
       <c r="L9" t="n">
         <v>149.9695119216956</v>
       </c>
       <c r="M9" t="n">
-        <v>284.3351449627282</v>
+        <v>284.335144962728</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6656814086849</v>
+        <v>436.6656814086846</v>
       </c>
       <c r="O9" t="n">
-        <v>553.7985668721253</v>
+        <v>553.798566872125</v>
       </c>
       <c r="P9" t="n">
-        <v>628.4749678308538</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="Q9" t="n">
-        <v>628.4749678308539</v>
+        <v>628.4749678308535</v>
       </c>
       <c r="R9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377081</v>
       </c>
       <c r="S9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377081</v>
       </c>
       <c r="T9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804219</v>
       </c>
       <c r="U9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804219</v>
       </c>
       <c r="V9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804219</v>
       </c>
       <c r="W9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804219</v>
       </c>
       <c r="X9" t="n">
-        <v>628.4749678308539</v>
+        <v>382.1431359356737</v>
       </c>
       <c r="Y9" t="n">
-        <v>628.4749678308539</v>
+        <v>223.4373359783875</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.21610577441295</v>
+        <v>323.1698963641948</v>
       </c>
       <c r="C10" t="n">
-        <v>41.21610577441295</v>
+        <v>323.1698963641948</v>
       </c>
       <c r="D10" t="n">
-        <v>41.21610577441295</v>
+        <v>173.053256951859</v>
       </c>
       <c r="E10" t="n">
-        <v>41.21610577441295</v>
+        <v>173.053256951859</v>
       </c>
       <c r="F10" t="n">
-        <v>41.21610577441295</v>
+        <v>173.053256951859</v>
       </c>
       <c r="G10" t="n">
-        <v>41.21610577441295</v>
+        <v>173.053256951859</v>
       </c>
       <c r="H10" t="n">
-        <v>41.21610577441295</v>
+        <v>17.44397398432983</v>
       </c>
       <c r="I10" t="n">
-        <v>41.21610577441295</v>
+        <v>17.44397398432983</v>
       </c>
       <c r="J10" t="n">
-        <v>12.56949935661708</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K10" t="n">
-        <v>96.26795780325853</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="L10" t="n">
-        <v>251.8155123413949</v>
+        <v>57.00537906705631</v>
       </c>
       <c r="M10" t="n">
-        <v>256.9523381952064</v>
+        <v>212.5529336051925</v>
       </c>
       <c r="N10" t="n">
-        <v>368.1004881433291</v>
+        <v>368.1004881433288</v>
       </c>
       <c r="O10" t="n">
-        <v>521.0882178492864</v>
+        <v>521.088217849286</v>
       </c>
       <c r="P10" t="n">
-        <v>628.4749678308539</v>
+        <v>628.4749678308535</v>
       </c>
       <c r="Q10" t="n">
-        <v>619.2044232295199</v>
+        <v>619.2044232295195</v>
       </c>
       <c r="R10" t="n">
-        <v>619.2044232295199</v>
+        <v>481.875696321481</v>
       </c>
       <c r="S10" t="n">
-        <v>619.2044232295199</v>
+        <v>481.875696321481</v>
       </c>
       <c r="T10" t="n">
-        <v>619.2044232295199</v>
+        <v>481.875696321481</v>
       </c>
       <c r="U10" t="n">
-        <v>619.2044232295199</v>
+        <v>481.875696321481</v>
       </c>
       <c r="V10" t="n">
-        <v>460.4986232722335</v>
+        <v>481.875696321481</v>
       </c>
       <c r="W10" t="n">
-        <v>358.6277056889856</v>
+        <v>481.875696321481</v>
       </c>
       <c r="X10" t="n">
-        <v>199.9219057316993</v>
+        <v>481.875696321481</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.21610577441295</v>
+        <v>481.875696321481</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>736.8185791558176</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>736.8185791558176</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>321.7461290008141</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.9108438165264</v>
+        <v>994.2880032601525</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9746608886195</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762837</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938906</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760406</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5233,16 +5233,16 @@
         <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W13" t="n">
-        <v>1333.548859544783</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X13" t="n">
-        <v>1105.559308646766</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.559308646766</v>
+        <v>994.2880032601525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1807.929327065479</v>
+        <v>1527.507011484399</v>
       </c>
       <c r="C14" t="n">
-        <v>1807.929327065479</v>
+        <v>1527.507011484399</v>
       </c>
       <c r="D14" t="n">
-        <v>1449.663628458728</v>
+        <v>1169.241312877648</v>
       </c>
       <c r="E14" t="n">
-        <v>1063.875375860484</v>
+        <v>783.4530602794039</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8894710708764</v>
+        <v>783.4530602794039</v>
       </c>
       <c r="G14" t="n">
-        <v>238.149150018822</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773513</v>
+        <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055978</v>
+        <v>666.2644720055996</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645697</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275284</v>
+        <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235388</v>
+        <v>2364.220579235392</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163072</v>
+        <v>2922.039463163075</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.6239741404</v>
+        <v>3363.623974140404</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049509</v>
+        <v>3647.062805049514</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584645</v>
+        <v>3726.52780058465</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.527800584645</v>
+        <v>3623.805524045195</v>
       </c>
       <c r="T14" t="n">
-        <v>3522.003948117026</v>
+        <v>3419.281671577577</v>
       </c>
       <c r="U14" t="n">
-        <v>3268.500041719099</v>
+        <v>3165.77776517965</v>
       </c>
       <c r="V14" t="n">
-        <v>2937.437154375528</v>
+        <v>2834.714877836079</v>
       </c>
       <c r="W14" t="n">
-        <v>2584.668499105412</v>
+        <v>2481.946222565964</v>
       </c>
       <c r="X14" t="n">
-        <v>2584.668499105412</v>
+        <v>2108.480464304885</v>
       </c>
       <c r="Y14" t="n">
-        <v>2194.5291671296</v>
+        <v>1914.106851548521</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718612</v>
+        <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807614</v>
+        <v>184.6629209807617</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628279</v>
+        <v>451.0514990628286</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417077</v>
+        <v>855.5663578417089</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475663</v>
+        <v>1346.972986475665</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259247</v>
+        <v>1865.794331259249</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.19470656048</v>
+        <v>2318.194706560483</v>
       </c>
       <c r="P15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.869110643539</v>
+        <v>558.933687465644</v>
       </c>
       <c r="C16" t="n">
-        <v>525.869110643539</v>
+        <v>389.997504537737</v>
       </c>
       <c r="D16" t="n">
-        <v>375.7524712312036</v>
+        <v>389.997504537737</v>
       </c>
       <c r="E16" t="n">
-        <v>227.8393776488105</v>
+        <v>242.0844109553439</v>
       </c>
       <c r="F16" t="n">
-        <v>227.8393776488105</v>
+        <v>242.0844109553439</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169288</v>
+        <v>74.53055601169301</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525471</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923167</v>
+        <v>350.9282837923171</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553097</v>
+        <v>689.1968198553104</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776856</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135871</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389593</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304783</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="S16" t="n">
-        <v>1807.847639528747</v>
+        <v>1890.979338613558</v>
       </c>
       <c r="T16" t="n">
-        <v>1807.847639528747</v>
+        <v>1669.849281277322</v>
       </c>
       <c r="U16" t="n">
-        <v>1518.752898927934</v>
+        <v>1380.754540676509</v>
       </c>
       <c r="V16" t="n">
-        <v>1264.068410722047</v>
+        <v>1126.070052470622</v>
       </c>
       <c r="W16" t="n">
-        <v>974.6512406850863</v>
+        <v>1007.715817507191</v>
       </c>
       <c r="X16" t="n">
-        <v>746.6616897870691</v>
+        <v>779.7262666091741</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.869110643539</v>
+        <v>558.933687465644</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
         <v>1784.429621497863</v>
@@ -5501,28 +5501,28 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
         <v>2681.771598889756</v>
@@ -5537,7 +5537,7 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
         <v>4188.091007924547</v>
@@ -5555,10 +5555,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,16 +5686,16 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
@@ -5738,31 +5738,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5771,16 +5771,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400162</v>
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609052</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,19 +5923,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5987,28 +5987,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
@@ -6029,10 +6029,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502089</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609035</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.684995803979</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315372</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902783</v>
@@ -6166,13 +6166,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6187,10 +6187,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I26" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233286</v>
@@ -6260,16 +6260,16 @@
         <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6309,7 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>879.6062951712937</v>
       </c>
       <c r="M27" t="n">
         <v>1428.524759781583</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
         <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315381</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G28" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H28" t="n">
         <v>140.057470989793</v>
@@ -6382,52 +6382,52 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502129</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477748</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609078</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
         <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
         <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233287</v>
@@ -6719,31 +6719,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902786</v>
@@ -6880,7 +6880,7 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
         <v>2333.272818966196</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511619</v>
@@ -6971,16 +6971,16 @@
         <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749443</v>
@@ -7093,13 +7093,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,19 +7114,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7205,19 +7205,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7309,16 +7309,16 @@
         <v>872.8624197502095</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315379</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749438</v>
@@ -7333,7 +7333,7 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902787</v>
@@ -7351,13 +7351,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7397,25 +7397,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746738</v>
@@ -7424,25 +7424,25 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
         <v>3496.71823738206</v>
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315379</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902781</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233287</v>
@@ -7667,31 +7667,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7783,40 +7783,40 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7825,19 +7825,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7846,7 +7846,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7979,13 +7979,13 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
-        <v>53.28984570098882</v>
+        <v>67.2813010774763</v>
       </c>
       <c r="L2" t="n">
         <v>42.82771425184718</v>
       </c>
       <c r="M2" t="n">
-        <v>8.96042083997304</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P2" t="n">
-        <v>56.66044049156213</v>
+        <v>51.53284255557634</v>
       </c>
       <c r="Q2" t="n">
         <v>94.69342620105843</v>
@@ -8140,19 +8140,19 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>61.42742446524517</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M4" t="n">
-        <v>60.14952747477967</v>
+        <v>60.7148388031226</v>
       </c>
       <c r="N4" t="n">
-        <v>51.66696632264113</v>
+        <v>51.66696632264114</v>
       </c>
       <c r="O4" t="n">
-        <v>69.30915932737095</v>
+        <v>69.30915932737096</v>
       </c>
       <c r="P4" t="n">
-        <v>66.5883684560963</v>
+        <v>80.01451250424086</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>108.9173917992722</v>
+        <v>108.9173917992714</v>
       </c>
       <c r="K5" t="n">
-        <v>25.88511962324586</v>
+        <v>25.88511962324694</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>19.71734041868013</v>
+        <v>12.23439766073925</v>
       </c>
       <c r="N5" t="n">
-        <v>6.963429866464139</v>
+        <v>14.44637262440642</v>
       </c>
       <c r="O5" t="n">
-        <v>30.312859820982</v>
+        <v>30.31285982098194</v>
       </c>
       <c r="P5" t="n">
-        <v>11.68850013812204</v>
+        <v>11.68850013812326</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.43691682083391</v>
+        <v>57.43691682083482</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>49.66150028500539</v>
+        <v>49.66150028500581</v>
       </c>
       <c r="K6" t="n">
-        <v>5.935146555547249</v>
+        <v>5.935146555547959</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.70927131401137</v>
+        <v>35.70927131401196</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>49.44790404469462</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>33.06841639281886</v>
+        <v>90.51850353769893</v>
       </c>
       <c r="M7" t="n">
-        <v>89.02490073318461</v>
+        <v>86.85790993588843</v>
       </c>
       <c r="N7" t="n">
-        <v>78.01601174252286</v>
+        <v>22.88714023985985</v>
       </c>
       <c r="O7" t="n">
-        <v>99.10833718134249</v>
+        <v>99.10833718134155</v>
       </c>
       <c r="P7" t="n">
-        <v>112.3504330336072</v>
+        <v>54.90034588872669</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.36325065172224</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239134</v>
+        <v>50.24735287691408</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>23.2316826181857</v>
+        <v>23.23168261818572</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>22.19986892380258</v>
       </c>
       <c r="L10" t="n">
-        <v>155.3190545659417</v>
+        <v>43.08503958846987</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.9300289740654</v>
       </c>
       <c r="N10" t="n">
-        <v>99.26862669272379</v>
+        <v>144.1165101169798</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>41.92609194437616</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589021</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1251564493144</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>237.0642482077596</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>93.35266590327922</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2579533164421</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389962</v>
+        <v>28.90056660389945</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>193.8080620272533</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>106.019520757812</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434401</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396096</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>169.3523057227947</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.055333763768431e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.714148988365195e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-8.371082882531257e-14</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.158184659288963e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>999260.63442088</v>
+        <v>999260.6344208799</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1052614.466610902</v>
+        <v>1052614.466610903</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26323,10 +26323,10 @@
         <v>204598.2593825524</v>
       </c>
       <c r="F2" t="n">
-        <v>215636.9832839362</v>
+        <v>215636.9832839363</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="H2" t="n">
         <v>246312.5309592851</v>
@@ -26344,7 +26344,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
@@ -26353,7 +26353,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>319001.5267229508</v>
       </c>
       <c r="C3" t="n">
-        <v>62839.91986073564</v>
+        <v>62839.91986073325</v>
       </c>
       <c r="D3" t="n">
-        <v>142342.8225818687</v>
+        <v>142342.8225818709</v>
       </c>
       <c r="E3" t="n">
         <v>667257.5729881105</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654189</v>
+        <v>93369.88484654325</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975347</v>
+        <v>143964.0818975336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3660.78035052567</v>
+        <v>3660.780350525567</v>
       </c>
       <c r="K3" t="n">
-        <v>11184.86114096791</v>
+        <v>11184.86114096764</v>
       </c>
       <c r="L3" t="n">
-        <v>50513.40139700581</v>
+        <v>50513.40139700611</v>
       </c>
       <c r="M3" t="n">
         <v>168033.9493212428</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.1543861315</v>
+        <v>24549.15438613189</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875983</v>
+        <v>31434.59456875957</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26418,10 @@
         <v>349184.4550287492</v>
       </c>
       <c r="C4" t="n">
-        <v>330706.6735055312</v>
+        <v>330706.6735055319</v>
       </c>
       <c r="D4" t="n">
-        <v>287430.0799408476</v>
+        <v>287430.0799408477</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26430,34 +26430,34 @@
         <v>11042.15861061438</v>
       </c>
       <c r="G4" t="n">
+        <v>42179.65104603464</v>
+      </c>
+      <c r="H4" t="n">
+        <v>42179.6510460346</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42179.65104603464</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42179.65104603473</v>
+      </c>
+      <c r="K4" t="n">
         <v>42179.65104603465</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>42179.65104603465</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42179.65104603473</v>
+      </c>
+      <c r="N4" t="n">
+        <v>42179.65104603464</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42179.65104603463</v>
+      </c>
+      <c r="P4" t="n">
         <v>42179.65104603466</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42179.65104603465</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42179.65104603478</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42179.65104603475</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42179.65104603471</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42179.65104603472</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42179.65104603466</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42179.65104603473</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42179.65104603464</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>41589.03570424159</v>
       </c>
       <c r="C5" t="n">
-        <v>45399.59565181589</v>
+        <v>45399.59565181575</v>
       </c>
       <c r="D5" t="n">
         <v>54294.69533421406</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390695</v>
+        <v>82183.39720390705</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215525</v>
@@ -26506,7 +26506,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26522,43 +26522,43 @@
         <v>-463462.4864966567</v>
       </c>
       <c r="C6" t="n">
-        <v>-192633.6580587978</v>
+        <v>-192633.6580587961</v>
       </c>
       <c r="D6" t="n">
-        <v>-237755.0668976454</v>
+        <v>-237755.0668976476</v>
       </c>
       <c r="E6" t="n">
-        <v>-547955.9451990675</v>
+        <v>-548303.5641288735</v>
       </c>
       <c r="F6" t="n">
-        <v>29041.54262287304</v>
+        <v>28785.91305891042</v>
       </c>
       <c r="G6" t="n">
-        <v>-34937.63608643953</v>
+        <v>-34937.63608643854</v>
       </c>
       <c r="H6" t="n">
         <v>109026.4458110952</v>
       </c>
       <c r="I6" t="n">
-        <v>109026.4458110952</v>
+        <v>109026.4458110954</v>
       </c>
       <c r="J6" t="n">
-        <v>105365.6654605693</v>
+        <v>105365.6654605694</v>
       </c>
       <c r="K6" t="n">
-        <v>97841.58467012708</v>
+        <v>97841.58467012749</v>
       </c>
       <c r="L6" t="n">
-        <v>58513.04441408921</v>
+        <v>58513.044414089</v>
       </c>
       <c r="M6" t="n">
-        <v>-59007.5035101478</v>
+        <v>-59007.50351014789</v>
       </c>
       <c r="N6" t="n">
-        <v>84477.29142496362</v>
+        <v>84477.29142496319</v>
       </c>
       <c r="O6" t="n">
-        <v>77591.85124233521</v>
+        <v>77591.85124233548</v>
       </c>
       <c r="P6" t="n">
         <v>109026.4458110951</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>379.7720345599599</v>
+        <v>379.7720345599578</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011505</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808273</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>13.99145537648747</v>
       </c>
       <c r="C4" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1187419577135</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461612</v>
+        <v>931.6319501461626</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26814,7 +26814,7 @@
         <v>1062.255112188952</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26826,7 +26826,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,23 +26920,23 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.27897692436818e-13</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221381</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>53.59060257137514</v>
+        <v>53.59060257137304</v>
       </c>
       <c r="D3" t="n">
-        <v>130.0571316411906</v>
+        <v>130.0571316411926</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497428</v>
+        <v>81.79094321497541</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118502</v>
+        <v>106.5922268118493</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>13.99145537648747</v>
       </c>
       <c r="C4" t="n">
-        <v>43.45863176839353</v>
+        <v>43.45863176839205</v>
       </c>
       <c r="D4" t="n">
-        <v>99.66865481283247</v>
+        <v>99.66865481283386</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2827134445796</v>
+        <v>674.2827134445795</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.2304947438697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,22 +27036,22 @@
         <v>13.99145537648701</v>
       </c>
       <c r="K4" t="n">
-        <v>43.45863176839353</v>
+        <v>43.45863176839251</v>
       </c>
       <c r="L4" t="n">
-        <v>99.66865481283321</v>
+        <v>99.66865481283386</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445789</v>
+        <v>674.282713444579</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438702</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427911</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>13.99145537648747</v>
       </c>
       <c r="K4" t="n">
-        <v>43.45863176839353</v>
+        <v>43.45863176839205</v>
       </c>
       <c r="L4" t="n">
-        <v>99.66865481283247</v>
+        <v>99.66865481283386</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445796</v>
+        <v>674.2827134445795</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.2304947438697</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427905</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5523718461013</v>
+        <v>392.884590365224</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>312.0541785368552</v>
       </c>
       <c r="I2" t="n">
-        <v>145.9312295437077</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.50783592284134</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>166.8155539562035</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>135.1213916690286</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>143.6536250789135</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>131.0777570168964</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6419193661031</v>
+        <v>122.6504639896156</v>
       </c>
       <c r="H3" t="n">
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24928840784845</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>42.60577168907633</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
@@ -27515,7 +27515,7 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V3" t="n">
-        <v>218.8091317729378</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.3590218816942</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27549,16 @@
         <v>131.4295926464438</v>
       </c>
       <c r="G4" t="n">
-        <v>155.0791094379511</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H4" t="n">
         <v>156.9975751224423</v>
       </c>
       <c r="I4" t="n">
-        <v>137.761816287615</v>
+        <v>123.7703609111276</v>
       </c>
       <c r="J4" t="n">
-        <v>37.78226577993573</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.286945936951</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.8139694282178</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.5315429601035</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.5931979756073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>307.8228046261265</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>297.2329544758034</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>352.7901048423686</v>
+        <v>349.4259585968319</v>
       </c>
       <c r="G5" t="n">
-        <v>356.3259286232793</v>
+        <v>356.3259286232808</v>
       </c>
       <c r="H5" t="n">
-        <v>323.8392630245624</v>
+        <v>323.8392630245625</v>
       </c>
       <c r="I5" t="n">
-        <v>151.6169494201633</v>
+        <v>151.6169494201636</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>53.96618300274987</v>
       </c>
       <c r="S5" t="n">
-        <v>174.2298977770591</v>
+        <v>174.2298977770593</v>
       </c>
       <c r="T5" t="n">
         <v>216.4126251167496</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>298.6389319602031</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3715006563295</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>115.2584118434347</v>
+        <v>171.5468159947795</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.5266490134024</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3462176317697</v>
+        <v>46.89613048689026</v>
       </c>
       <c r="I6" t="n">
-        <v>61.27200576371993</v>
+        <v>3.821918618840559</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.06011635177353</v>
+        <v>99.06011635177509</v>
       </c>
       <c r="T6" t="n">
-        <v>139.4220896654066</v>
+        <v>196.8721768102876</v>
       </c>
       <c r="U6" t="n">
         <v>225.8876407553295</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>88.98387550168817</v>
+        <v>88.98387550168965</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>87.97096087805173</v>
       </c>
       <c r="G7" t="n">
         <v>167.3061445420392</v>
       </c>
       <c r="H7" t="n">
-        <v>98.68828126748249</v>
+        <v>156.1383684123635</v>
       </c>
       <c r="I7" t="n">
-        <v>134.8556242662034</v>
+        <v>84.25358750899362</v>
       </c>
       <c r="J7" t="n">
-        <v>44.94135859580707</v>
+        <v>44.94135859580734</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.81646603314076</v>
       </c>
       <c r="R7" t="n">
-        <v>146.5007277225209</v>
+        <v>89.05064057764159</v>
       </c>
       <c r="S7" t="n">
-        <v>190.2962241940254</v>
+        <v>212.0817949180962</v>
       </c>
       <c r="T7" t="n">
         <v>225.0194770308523</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.1345662072138</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>222.3471792925042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>264.6633448754172</v>
       </c>
       <c r="F8" t="n">
-        <v>249.757303783998</v>
+        <v>249.7573037839981</v>
       </c>
       <c r="G8" t="n">
-        <v>256.1344310701808</v>
+        <v>256.1344310701809</v>
       </c>
       <c r="H8" t="n">
-        <v>318.4846998108122</v>
+        <v>161.3659578530989</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5263384976874761</v>
+        <v>0.5263384976875614</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>77.77797437624315</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>51.6404162978393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921399</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>195.7446060180399</v>
+        <v>38.62586406032656</v>
       </c>
       <c r="U9" t="n">
         <v>225.8692364442482</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>151.0948055041768</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>48.56395381959098</v>
       </c>
     </row>
     <row r="10">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>22.71323822422391</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.53441047218229</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.9554396389582</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>207.9945896499623</v>
@@ -28068,16 +28068,16 @@
         <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>95.01890136611453</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>185.6707899291756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>68.59091343132368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.46591139438132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
         <v>31.61020235221394</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.526721746974712</v>
+        <v>1.526721746974704</v>
       </c>
       <c r="H5" t="n">
-        <v>15.63553909120477</v>
+        <v>15.63553909120469</v>
       </c>
       <c r="I5" t="n">
-        <v>58.85894015024265</v>
+        <v>58.85894015024232</v>
       </c>
       <c r="J5" t="n">
-        <v>129.5785998722951</v>
+        <v>129.5785998722944</v>
       </c>
       <c r="K5" t="n">
-        <v>194.2047314217347</v>
+        <v>194.2047314217336</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9281420857121</v>
+        <v>240.9281420857108</v>
       </c>
       <c r="M5" t="n">
-        <v>268.0789799534736</v>
+        <v>268.0789799534721</v>
       </c>
       <c r="N5" t="n">
-        <v>272.4167781170655</v>
+        <v>272.416778117064</v>
       </c>
       <c r="O5" t="n">
-        <v>257.2354387455857</v>
+        <v>257.2354387455843</v>
       </c>
       <c r="P5" t="n">
-        <v>219.5444956171475</v>
+        <v>219.5444956171463</v>
       </c>
       <c r="Q5" t="n">
-        <v>164.8687730536156</v>
+        <v>164.8687730536147</v>
       </c>
       <c r="R5" t="n">
-        <v>95.90293493840035</v>
+        <v>95.90293493839981</v>
       </c>
       <c r="S5" t="n">
-        <v>34.79017180918629</v>
+        <v>34.7901718091861</v>
       </c>
       <c r="T5" t="n">
-        <v>6.683224447381805</v>
+        <v>6.683224447381769</v>
       </c>
       <c r="U5" t="n">
-        <v>0.122137739757977</v>
+        <v>0.1221377397579763</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8168681498082158</v>
+        <v>0.8168681498082112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.889226604726717</v>
+        <v>7.889226604726673</v>
       </c>
       <c r="I6" t="n">
-        <v>28.12462708769515</v>
+        <v>28.12462708769499</v>
       </c>
       <c r="J6" t="n">
-        <v>77.17612638166131</v>
+        <v>77.17612638166088</v>
       </c>
       <c r="K6" t="n">
-        <v>131.9062924188117</v>
+        <v>131.906292418811</v>
       </c>
       <c r="L6" t="n">
-        <v>177.3642884046304</v>
+        <v>177.3642884046294</v>
       </c>
       <c r="M6" t="n">
-        <v>199.5841210668993</v>
+        <v>199.5841210668978</v>
       </c>
       <c r="N6" t="n">
-        <v>188.7917992282143</v>
+        <v>188.7917992282128</v>
       </c>
       <c r="O6" t="n">
-        <v>194.353712818624</v>
+        <v>194.3537128186229</v>
       </c>
       <c r="P6" t="n">
-        <v>155.985989062939</v>
+        <v>155.9859890629382</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.2725027720101</v>
+        <v>104.2725027720096</v>
       </c>
       <c r="R6" t="n">
-        <v>50.71748038896976</v>
+        <v>50.71748038896948</v>
       </c>
       <c r="S6" t="n">
-        <v>15.1729676071833</v>
+        <v>15.17296760718321</v>
       </c>
       <c r="T6" t="n">
-        <v>3.292551884533991</v>
+        <v>3.292551884533973</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05374132564527737</v>
+        <v>0.05374132564527707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6848348164195998</v>
+        <v>0.684834816419596</v>
       </c>
       <c r="H7" t="n">
-        <v>6.088804095076083</v>
+        <v>6.088804095076049</v>
       </c>
       <c r="I7" t="n">
-        <v>20.59485066105488</v>
+        <v>20.59485066105477</v>
       </c>
       <c r="J7" t="n">
-        <v>48.4178215208657</v>
+        <v>48.41782152086544</v>
       </c>
       <c r="K7" t="n">
-        <v>79.56535412584076</v>
+        <v>79.56535412584032</v>
       </c>
       <c r="L7" t="n">
-        <v>101.8162598884194</v>
+        <v>101.8162598884189</v>
       </c>
       <c r="M7" t="n">
-        <v>107.3509703593014</v>
+        <v>107.3509703593008</v>
       </c>
       <c r="N7" t="n">
-        <v>104.7984042253739</v>
+        <v>104.7984042253733</v>
       </c>
       <c r="O7" t="n">
-        <v>96.79828841538129</v>
+        <v>96.79828841538075</v>
       </c>
       <c r="P7" t="n">
-        <v>82.82765816042138</v>
+        <v>82.82765816042092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.34557721855395</v>
+        <v>57.34557721855363</v>
       </c>
       <c r="R7" t="n">
-        <v>30.79266365464854</v>
+        <v>30.79266365464837</v>
       </c>
       <c r="S7" t="n">
-        <v>11.93480311887611</v>
+        <v>11.93480311887605</v>
       </c>
       <c r="T7" t="n">
-        <v>2.926112397429198</v>
+        <v>2.926112397429182</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03735462635016003</v>
+        <v>0.03735462635015983</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.9901023049549</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
         <v>79.01583489435119</v>
@@ -31531,19 +31531,19 @@
         <v>323.4366478202535</v>
       </c>
       <c r="M8" t="n">
-        <v>359.8855902702222</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
         <v>365.7089153695951</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995944</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P8" t="n">
-        <v>294.729935220837</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q8" t="n">
-        <v>221.3299070215256</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
         <v>128.7459552216403</v>
@@ -31552,7 +31552,7 @@
         <v>46.70445075299988</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896626</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U8" t="n">
         <v>0.1639651589792643</v>
@@ -31598,7 +31598,7 @@
         <v>10.59097947146164</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357578</v>
+        <v>37.75621655357577</v>
       </c>
       <c r="J9" t="n">
         <v>103.605944048481</v>
@@ -31613,7 +31613,7 @@
         <v>277.856895579627</v>
       </c>
       <c r="N9" t="n">
-        <v>285.2109408166229</v>
+        <v>285.2109408166228</v>
       </c>
       <c r="O9" t="n">
         <v>260.9122903671114</v>
@@ -31622,10 +31622,10 @@
         <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860216</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342915</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S9" t="n">
         <v>20.36911810247048</v>
@@ -31634,7 +31634,7 @@
         <v>4.420122676781671</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657794</v>
+        <v>0.07214563672657792</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987958</v>
+        <v>0.9193640701987957</v>
       </c>
       <c r="H10" t="n">
-        <v>8.173982369585664</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I10" t="n">
         <v>27.64778494743289</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305487</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K10" t="n">
         <v>106.8133892467328</v>
@@ -31689,7 +31689,7 @@
         <v>136.6843636730101</v>
       </c>
       <c r="M10" t="n">
-        <v>144.1144969312531</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
         <v>140.6877763059667</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601092</v>
+        <v>4.709819673601097</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2344407322672</v>
+        <v>48.23444073226725</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665063</v>
+        <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223011</v>
+        <v>399.7400575223015</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058354</v>
+        <v>599.106724305836</v>
       </c>
       <c r="L14" t="n">
-        <v>743.244868141805</v>
+        <v>743.2448681418057</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622084</v>
+        <v>827.0031237622092</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098276</v>
+        <v>840.3848989098284</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304567</v>
+        <v>793.5516295304574</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384296</v>
+        <v>677.2779563384303</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775903</v>
+        <v>508.6075392775908</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718449</v>
+        <v>295.8532100718452</v>
       </c>
       <c r="S14" t="n">
-        <v>107.325015812185</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118879</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880873</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681945</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137563</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.7623207914617</v>
+        <v>86.76232079146179</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667359</v>
+        <v>238.0824397667361</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744262</v>
+        <v>406.9208107744266</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332882</v>
+        <v>547.1552472332886</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755085</v>
+        <v>638.5043658755091</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111958</v>
+        <v>655.4036765111965</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062958</v>
+        <v>599.5663205062965</v>
       </c>
       <c r="P15" t="n">
-        <v>379.1177078491739</v>
+        <v>379.1177078491712</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762294</v>
+        <v>46.80744312762298</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131889</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238122</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244426</v>
+        <v>2.112662964244428</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482773</v>
+        <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291421</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720809</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913069</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023031</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587875</v>
+        <v>331.1695226587879</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102404</v>
+        <v>323.2950516102407</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824758</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118894</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150492</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320842</v>
+        <v>94.99300928320852</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869603</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665407998</v>
+        <v>9.026832665408007</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860597</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P18" t="n">
-        <v>215.4343416764904</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
@@ -32801,16 +32801,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33029,10 +33029,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>502.1985563837565</v>
       </c>
       <c r="M27" t="n">
-        <v>601.8588519561649</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -33734,10 +33734,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,13 +33986,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="L2" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="M2" t="n">
-        <v>8.863857440501675</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>4.562286607642875</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.99145537648747</v>
+        <v>8.863857440501675</v>
       </c>
       <c r="Q2" t="n">
         <v>13.99145537648747</v>
@@ -34860,10 +34860,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13.42614404814455</v>
       </c>
       <c r="N4" t="n">
         <v>13.99145537648747</v>
@@ -34872,7 +34872,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>13.42614404814455</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.161727115724858</v>
+        <v>5.161727115723522</v>
       </c>
       <c r="M5" t="n">
-        <v>57.450087144881</v>
+        <v>49.96714438693864</v>
       </c>
       <c r="N5" t="n">
-        <v>49.96714438693874</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="O5" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>38.80990862475619</v>
+        <v>38.8099086247552</v>
       </c>
       <c r="M6" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="N6" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75746837417958</v>
+        <v>51.7574683741785</v>
       </c>
       <c r="P6" t="n">
-        <v>22.0115816486088</v>
+        <v>22.01158164860792</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>57.29586229995746</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="M7" t="n">
-        <v>57.450087144881</v>
+        <v>55.28309634758422</v>
       </c>
       <c r="N7" t="n">
-        <v>55.12887150266359</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>57.450087144881</v>
+        <v>57.45008714487953</v>
       </c>
       <c r="P7" t="n">
-        <v>57.450087144881</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.27157002399034</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>40.62243759887713</v>
       </c>
       <c r="L8" t="n">
-        <v>87.6702328502663</v>
+        <v>87.67023285026625</v>
       </c>
       <c r="M8" t="n">
         <v>129.5393570429494</v>
@@ -35188,10 +35188,10 @@
         <v>115.2303470779076</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556744</v>
+        <v>63.49693946556738</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>49.27157002399014</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646892</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L9" t="n">
         <v>99.55026996340843</v>
@@ -35261,13 +35261,13 @@
         <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8692287332896</v>
+        <v>153.8692287332895</v>
       </c>
       <c r="O9" t="n">
-        <v>118.316045922667</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911968</v>
+        <v>75.43070803911965</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.54389742084996</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>157.1187419577135</v>
+        <v>44.88472698024165</v>
       </c>
       <c r="M10" t="n">
-        <v>5.188712983648003</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="N10" t="n">
-        <v>112.2708585334573</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="O10" t="n">
         <v>154.5330603090477</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956148</v>
+        <v>218.6941529956152</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608549</v>
+        <v>379.0168732608554</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718178</v>
+        <v>507.4784531718184</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349357</v>
+        <v>596.6568905349365</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132366</v>
+        <v>610.9718353132375</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087699</v>
+        <v>563.4534181087706</v>
       </c>
       <c r="P14" t="n">
-        <v>446.04496058316</v>
+        <v>446.0449605831607</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031409</v>
+        <v>286.3018494031413</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771277</v>
+        <v>80.26767225771306</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000692</v>
+        <v>111.2448131000694</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000672</v>
+        <v>269.0793718000676</v>
       </c>
       <c r="L15" t="n">
-        <v>408.600867453414</v>
+        <v>408.6008674534144</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534902</v>
+        <v>496.3703319534907</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278626</v>
+        <v>524.0619644278632</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618514</v>
+        <v>456.9700760618521</v>
       </c>
       <c r="P15" t="n">
-        <v>245.1433004348437</v>
+        <v>245.1433004348409</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540813</v>
+        <v>56.00609145540827</v>
       </c>
       <c r="K16" t="n">
-        <v>223.183532565424</v>
+        <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626193</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206281</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.427223989469</v>
+        <v>367.4272239894693</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965155</v>
+        <v>323.2004348965158</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767828</v>
+        <v>252.7955417767831</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335478</v>
+        <v>90.74467096335495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P18" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,13 +36282,13 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36376,7 +36376,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36531,7 +36531,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J26" t="n">
         <v>255.0635279116842</v>
@@ -36677,10 +36677,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>363.6441766038823</v>
       </c>
       <c r="M27" t="n">
-        <v>459.7248180341467</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36841,7 +36841,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151672</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
         <v>635.6527791348809</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>243.9752689901968</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,13 +37634,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -37953,7 +37953,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38032,7 +38032,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227516</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
